--- a/daneobliczenia.xlsx
+++ b/daneobliczenia.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Fizyka\fizyka_z121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7296A504-3680-4BC9-8502-E5FD83904008}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD6163B-99D0-4DB6-B090-83CA4A1E2135}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17130" yWindow="4695" windowWidth="28800" windowHeight="11385"/>
+    <workbookView xWindow="23055" yWindow="2655" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabele" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>Napięcie</t>
   </si>
@@ -111,16 +111,32 @@
   <si>
     <t>Q</t>
   </si>
+  <si>
+    <t>10t [s]</t>
+  </si>
+  <si>
+    <t>I [A]</t>
+  </si>
+  <si>
+    <t>A [cm]</t>
+  </si>
+  <si>
+    <t>T [s]</t>
+  </si>
+  <si>
+    <t>ω' [1/s]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +252,13 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -331,41 +354,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Accent" xfId="1"/>
-    <cellStyle name="Accent 1" xfId="2"/>
-    <cellStyle name="Accent 2" xfId="3"/>
-    <cellStyle name="Accent 3" xfId="4"/>
-    <cellStyle name="Bad" xfId="5"/>
-    <cellStyle name="Error" xfId="6"/>
-    <cellStyle name="Footnote" xfId="7"/>
-    <cellStyle name="Good" xfId="8"/>
-    <cellStyle name="Heading" xfId="9"/>
-    <cellStyle name="Heading 1" xfId="10"/>
-    <cellStyle name="Heading 2" xfId="11"/>
-    <cellStyle name="Hyperlink" xfId="12"/>
-    <cellStyle name="Neutral" xfId="13"/>
+    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Status" xfId="15"/>
-    <cellStyle name="Text" xfId="16"/>
-    <cellStyle name="Warning" xfId="17"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,6 +403,3190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Krzywa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> rezonansowa dla prądu elektromagnezu = 0V</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14278648158670887"/>
+          <c:y val="5.3094122728329841E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12548381452318461"/>
+          <c:y val="0.25814345991561183"/>
+          <c:w val="0.83762729658792656"/>
+          <c:h val="0.55450081398053086"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabele!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.2633854210856601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.580354924861104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8238956039449175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0120660823102892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3708009458801089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5679581428928917</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8977519076750737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0354378255627674</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1915792689269429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5105372672133193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7384457469423804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabele!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38C4-48F9-93E0-22A771F14835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2116046944"/>
+        <c:axId val="2110628496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2116046944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Częstotliwość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> kołowa [1/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110628496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2110628496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Amplituda drgań [cm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2116046944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Krzywa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> rezonansowa dla prądu elektromagnezu = 10V</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabele!$J$3:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.3490957140528352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5985353752330429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8407471046624271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1106401371773291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2682337514405941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6050908047506613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8159175273598618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.097898691624537</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3601300928238684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4467170450810949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8007583353908609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabele!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F47-4F74-89B8-CF6347D060AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2116046944"/>
+        <c:axId val="2110628496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2116046944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Częstotliwość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> kołowa [1/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110628496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2110628496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Amplituda drgań [cm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2116046944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Krzywa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> rezonansowa dla prądu elektromagnezu = 20V</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabele!$O$3:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.2070269994077716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4620884719492366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7215810609853786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9355510220743906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2727361783409341</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4981852326604566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7879651083870374</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0107288539554133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2963645646317632</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5387444949141145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7326223169714172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabele!$M$3:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0E2-4384-B6FC-3CEA52C95FF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2116046944"/>
+        <c:axId val="2110628496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2116046944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Częstotliwość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> kołowa [1/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110628496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2110628496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Amplituda drgań [cm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2116046944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,6 +4017,194 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Obraz 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF037AE-0625-4E69-B33A-F72D172920F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6181725"/>
+          <a:ext cx="466725" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2906CA39-99E8-4B1C-AF2F-55E35419C1D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4368D2DA-1A63-4115-9FCC-2F7651D76856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81197AB2-FB3B-41AA-8E3B-7935B111E0F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1107,11 +4504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1591,7 +4988,7 @@
       <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F25" t="s">
@@ -1714,7 +5111,7 @@
         <v>14.8</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29:G31" si="0">1/$F$26 * LN(F29/F30)</f>
+        <f t="shared" ref="G29:G30" si="0">1/$F$26 * LN(F29/F30)</f>
         <v>0.19083658070442996</v>
       </c>
       <c r="I29">
@@ -1809,21 +5206,21 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="15.75">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="6">
         <f>1/(2*D32)</f>
         <v>74.831111860901984</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G33" s="6">
         <f>1/(2*G32)</f>
         <v>2.9958757629466586</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="6">
@@ -1852,6 +5249,29 @@
       <c r="J34" s="8">
         <f>J26*J33</f>
         <v>2.0944836895907302</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="D35" s="13">
+        <f>1/D33</f>
+        <v>1.3363425654543607E-2</v>
+      </c>
+      <c r="G35" s="13">
+        <f>1/G33</f>
+        <v>0.33379221273729598</v>
+      </c>
+      <c r="J35" s="13">
+        <f>1/J33</f>
+        <v>1.6884839288293676</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="8">
+        <f>D26/D35</f>
+        <v>276.41254706897791</v>
       </c>
     </row>
   </sheetData>
@@ -1866,65 +5286,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1937,14 +5380,30 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <f>B3/10</f>
+        <v>2.7760000000000002</v>
+      </c>
+      <c r="E3" s="8">
+        <f>SQRT((2*PI()/D3)^2 - (Sheet1!$D$32)^2)</f>
+        <v>2.2633854210856601</v>
+      </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3">
         <v>26.68</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
+      <c r="H3">
+        <v>0.8</v>
+      </c>
+      <c r="I3">
+        <f>G3/10</f>
+        <v>2.6680000000000001</v>
+      </c>
+      <c r="J3" s="8">
+        <f>SQRT((2*PI()/I3)^2 - (Sheet1!$G$32)^2)</f>
+        <v>2.3490957140528352</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1954,6 +5413,14 @@
       </c>
       <c r="M3">
         <v>0.8</v>
+      </c>
+      <c r="N3">
+        <f>L3/10</f>
+        <v>2.6589999999999998</v>
+      </c>
+      <c r="O3" s="8">
+        <f>SQRT((2*PI()/N3)^2 - (Sheet1!$J$31)^2)</f>
+        <v>2.2070269994077716</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1966,6 +5433,14 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D13" si="0">B4/10</f>
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="E4" s="8">
+        <f>SQRT((2*PI()/D4)^2 - (Sheet1!$D$32)^2)</f>
+        <v>2.580354924861104</v>
+      </c>
       <c r="F4">
         <v>5.5</v>
       </c>
@@ -1975,6 +5450,14 @@
       <c r="H4">
         <v>1.2</v>
       </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I13" si="1">G4/10</f>
+        <v>2.4129999999999998</v>
+      </c>
+      <c r="J4" s="8">
+        <f>SQRT((2*PI()/I4)^2 - (Sheet1!$G$32)^2)</f>
+        <v>2.5985353752330429</v>
+      </c>
       <c r="K4">
         <v>5.5</v>
       </c>
@@ -1983,6 +5466,14 @@
       </c>
       <c r="M4">
         <v>0.8</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N13" si="2">L4/10</f>
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="O4" s="8">
+        <f>SQRT((2*PI()/N4)^2 - (Sheet1!$J$31)^2)</f>
+        <v>2.4620884719492366</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1995,6 +5486,14 @@
       <c r="C5">
         <v>1.6</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="E5" s="8">
+        <f>SQRT((2*PI()/D5)^2 - (Sheet1!$D$32)^2)</f>
+        <v>2.8238956039449175</v>
+      </c>
       <c r="F5">
         <v>6</v>
       </c>
@@ -2004,6 +5503,14 @@
       <c r="H5">
         <v>1.2</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>2.2079999999999997</v>
+      </c>
+      <c r="J5" s="8">
+        <f>SQRT((2*PI()/I5)^2 - (Sheet1!$G$32)^2)</f>
+        <v>2.8407471046624271</v>
+      </c>
       <c r="K5">
         <v>6</v>
       </c>
@@ -2012,6 +5519,14 @@
       </c>
       <c r="M5">
         <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="O5" s="8">
+        <f>SQRT((2*PI()/N5)^2 - (Sheet1!$J$31)^2)</f>
+        <v>2.7215810609853786</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2024,6 +5539,14 @@
       <c r="C6">
         <v>2.6</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="E6" s="8">
+        <f>SQRT((2*PI()/D6)^2 - (Sheet1!$D$32)^2)</f>
+        <v>3.0120660823102892</v>
+      </c>
       <c r="F6">
         <v>6.5</v>
       </c>
@@ -2033,6 +5556,14 @@
       <c r="H6">
         <v>1.8</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>2.0170000000000003</v>
+      </c>
+      <c r="J6" s="8">
+        <f>SQRT((2*PI()/I6)^2 - (Sheet1!$G$32)^2)</f>
+        <v>3.1106401371773291</v>
+      </c>
       <c r="K6">
         <v>6.5</v>
       </c>
@@ -2041,6 +5572,14 @@
       </c>
       <c r="M6">
         <v>1.2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="O6" s="8">
+        <f>SQRT((2*PI()/N6)^2 - (Sheet1!$J$31)^2)</f>
+        <v>2.9355510220743906</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2053,6 +5592,14 @@
       <c r="C7">
         <v>4</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="E7" s="8">
+        <f>SQRT((2*PI()/D7)^2 - (Sheet1!$D$32)^2)</f>
+        <v>3.3708009458801089</v>
+      </c>
       <c r="F7">
         <v>7</v>
       </c>
@@ -2062,6 +5609,14 @@
       <c r="H7">
         <v>2.8</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.92</v>
+      </c>
+      <c r="J7" s="8">
+        <f>SQRT((2*PI()/I7)^2 - (Sheet1!$G$32)^2)</f>
+        <v>3.2682337514405941</v>
+      </c>
       <c r="K7">
         <v>7</v>
       </c>
@@ -2070,6 +5625,14 @@
       </c>
       <c r="M7">
         <v>1.2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>1.859</v>
+      </c>
+      <c r="O7" s="8">
+        <f>SQRT((2*PI()/N7)^2 - (Sheet1!$J$31)^2)</f>
+        <v>3.2727361783409341</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2082,6 +5645,14 @@
       <c r="C8">
         <v>16.2</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="E8" s="8">
+        <f>SQRT((2*PI()/D8)^2 - (Sheet1!$D$32)^2)</f>
+        <v>3.5679581428928917</v>
+      </c>
       <c r="F8">
         <v>7.5</v>
       </c>
@@ -2091,6 +5662,14 @@
       <c r="H8">
         <v>4.8</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1.7410000000000001</v>
+      </c>
+      <c r="J8" s="8">
+        <f>SQRT((2*PI()/I8)^2 - (Sheet1!$G$32)^2)</f>
+        <v>3.6050908047506613</v>
+      </c>
       <c r="K8">
         <v>7.5</v>
       </c>
@@ -2099,6 +5678,14 @@
       </c>
       <c r="M8">
         <v>1.4</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>1.746</v>
+      </c>
+      <c r="O8" s="8">
+        <f>SQRT((2*PI()/N8)^2 - (Sheet1!$J$31)^2)</f>
+        <v>3.4981852326604566</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2111,6 +5698,14 @@
       <c r="C9">
         <v>5.4</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="E9" s="8">
+        <f>SQRT((2*PI()/D9)^2 - (Sheet1!$D$32)^2)</f>
+        <v>3.8977519076750737</v>
+      </c>
       <c r="F9">
         <v>8</v>
       </c>
@@ -2120,6 +5715,14 @@
       <c r="H9">
         <v>2.2000000000000002</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.645</v>
+      </c>
+      <c r="J9" s="8">
+        <f>SQRT((2*PI()/I9)^2 - (Sheet1!$G$32)^2)</f>
+        <v>3.8159175273598618</v>
+      </c>
       <c r="K9">
         <v>8</v>
       </c>
@@ -2128,6 +5731,14 @@
       </c>
       <c r="M9">
         <v>1.2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>1.6190000000000002</v>
+      </c>
+      <c r="O9" s="8">
+        <f>SQRT((2*PI()/N9)^2 - (Sheet1!$J$31)^2)</f>
+        <v>3.7879651083870374</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2140,6 +5751,14 @@
       <c r="C10">
         <v>3.2</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="E10" s="8">
+        <f>SQRT((2*PI()/D10)^2 - (Sheet1!$D$32)^2)</f>
+        <v>4.0354378255627674</v>
+      </c>
       <c r="F10">
         <v>8.5</v>
       </c>
@@ -2149,6 +5768,14 @@
       <c r="H10">
         <v>1.6</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.532</v>
+      </c>
+      <c r="J10" s="8">
+        <f>SQRT((2*PI()/I10)^2 - (Sheet1!$G$32)^2)</f>
+        <v>4.097898691624537</v>
+      </c>
       <c r="K10">
         <v>8.5</v>
       </c>
@@ -2157,6 +5784,14 @@
       </c>
       <c r="M10">
         <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="O10" s="8">
+        <f>SQRT((2*PI()/N10)^2 - (Sheet1!$J$31)^2)</f>
+        <v>4.0107288539554133</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2169,6 +5804,14 @@
       <c r="C11">
         <v>1.4</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="E11" s="8">
+        <f>SQRT((2*PI()/D11)^2 - (Sheet1!$D$32)^2)</f>
+        <v>4.1915792689269429</v>
+      </c>
       <c r="F11">
         <v>9</v>
       </c>
@@ -2178,6 +5821,14 @@
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1.44</v>
+      </c>
+      <c r="J11" s="8">
+        <f>SQRT((2*PI()/I11)^2 - (Sheet1!$G$32)^2)</f>
+        <v>4.3601300928238684</v>
+      </c>
       <c r="K11">
         <v>9</v>
       </c>
@@ -2186,6 +5837,14 @@
       </c>
       <c r="M11">
         <v>0.8</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="O11" s="8">
+        <f>SQRT((2*PI()/N11)^2 - (Sheet1!$J$31)^2)</f>
+        <v>4.2963645646317632</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2198,6 +5857,14 @@
       <c r="C12">
         <v>1.2</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.393</v>
+      </c>
+      <c r="E12" s="8">
+        <f>SQRT((2*PI()/D12)^2 - (Sheet1!$D$32)^2)</f>
+        <v>4.5105372672133193</v>
+      </c>
       <c r="F12">
         <v>9.5</v>
       </c>
@@ -2207,6 +5874,14 @@
       <c r="H12">
         <v>0.8</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="J12" s="8">
+        <f>SQRT((2*PI()/I12)^2 - (Sheet1!$G$32)^2)</f>
+        <v>4.4467170450810949</v>
+      </c>
       <c r="K12">
         <v>9.5</v>
       </c>
@@ -2215,6 +5890,14 @@
       </c>
       <c r="M12">
         <v>0.6</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>1.361</v>
+      </c>
+      <c r="O12" s="8">
+        <f>SQRT((2*PI()/N12)^2 - (Sheet1!$J$31)^2)</f>
+        <v>4.5387444949141145</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2227,6 +5910,14 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="E13" s="8">
+        <f>SQRT((2*PI()/D13)^2 - (Sheet1!$D$32)^2)</f>
+        <v>4.7384457469423804</v>
+      </c>
       <c r="F13">
         <v>10</v>
       </c>
@@ -2236,6 +5927,14 @@
       <c r="H13">
         <v>0.6</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="J13" s="8">
+        <f>SQRT((2*PI()/I13)^2 - (Sheet1!$G$32)^2)</f>
+        <v>4.8007583353908609</v>
+      </c>
       <c r="K13">
         <v>10</v>
       </c>
@@ -2244,6 +5943,14 @@
       </c>
       <c r="M13">
         <v>0.6</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>1.3069999999999999</v>
+      </c>
+      <c r="O13" s="8">
+        <f>SQRT((2*PI()/N13)^2 - (Sheet1!$J$31)^2)</f>
+        <v>4.7326223169714172</v>
       </c>
     </row>
   </sheetData>
@@ -2253,5 +5960,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>